--- a/biology/Botanique/Parc_de_Tove_Jansson/Parc_de_Tove_Jansson.xlsx
+++ b/biology/Botanique/Parc_de_Tove_Jansson/Parc_de_Tove_Jansson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc de Tove Jansson (en finnois : Tove Janssonin puisto) est un parc du  quartier de Katajanokka à Helsinki  en Finlande[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc de Tove Jansson (en finnois : Tove Janssonin puisto) est un parc du  quartier de Katajanokka à Helsinki  en Finlande.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de 7 433 mètres carrés est situé à côté de la cathédrale Uspenski[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de 7 433 mètres carrés est situé à côté de la cathédrale Uspenski.
 Les travaux de plantation dans le parc ont commencé en 1897. Selon les plans du jardinier  Svante Olsson, le parc s'adapte aux reliefs et relie trois types de plantations à différents niveaux.
 Au sommet du parc se trouvent une aire de jeux pour enfants et une zone clôturée pour chiens
-La partie inférieure est planté de bouleaux et d'érables, bordé de jasmin et de lilas. En outre, le parc a des cerisiers et des pommiers d'ornement[4].
+La partie inférieure est planté de bouleaux et d'érables, bordé de jasmin et de lilas. En outre, le parc a des cerisiers et des pommiers d'ornement.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Nom du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du parc était Katajanokanpuisto jusqu'en 2014. 
 En 2009, l'association de Tove Jansson a proposé que le parc Katajanokanpuisto, situé devant le Musée du Design d'Helsinki ou bien le parc Kapteeninkatu, soit  renommé parc de Tove Jansson.
-Le 11 mars 2014, le conseil d'aménagement urbain a renommé le parc Katajanokanpuisto en parc de Tove Jansson[5],[3].
+Le 11 mars 2014, le conseil d'aménagement urbain a renommé le parc Katajanokanpuisto en parc de Tove Jansson,.
 La maison d'enfance de Tove Jansson à Luotsikatu 4 est à côté du parc.
 </t>
         </is>
